--- a/mpiProgram/data.xlsx
+++ b/mpiProgram/data.xlsx
@@ -292,12 +292,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -307,15 +307,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.53"/>
@@ -335,7 +335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -349,7 +349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
@@ -363,7 +363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
@@ -377,7 +377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
@@ -388,10 +388,10 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
@@ -402,10 +402,10 @@
         <v>13</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
@@ -416,10 +416,10 @@
         <v>15</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
@@ -517,14 +517,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -546,13 +540,13 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.53"/>
   </cols>
@@ -568,7 +562,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -590,7 +584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
@@ -634,7 +628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
@@ -678,7 +672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
@@ -689,7 +683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
@@ -737,9 +731,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.53"/>
   </cols>
